--- a/Lab02/Prelab Files/Lab02StateTable.xlsx
+++ b/Lab02/Prelab Files/Lab02StateTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adairdg\Documents\Classes\ECE-425-Mobile-Robotics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adairdg\Documents\Classes\ECE-425-Mobile-Robotics\Lab02\Prelab Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5199B16D-CFDD-4483-B259-1D83079E0EDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237DCA6F-4002-4885-89EE-55467E47A34A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5532" xr2:uid="{2F548ABA-10B3-425E-A634-A1C6978E5CF5}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
